--- a/django_thesis/Data_Gathering/VIVO Crowdsourcing Calibration Coefficients/cap1_2417_Realme_6Pro.xlsx
+++ b/django_thesis/Data_Gathering/VIVO Crowdsourcing Calibration Coefficients/cap1_2417_Realme_6Pro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thesis2.0\django_thesis\Data_Gathering\VIVO Crowdsourcing Calibration Coefficients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4438D7DA-0F8E-47A3-AC84-90C0AF1AD7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ACCED1-1FCC-428B-B84E-C67A240808B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,7 +1123,8 @@
         </a:gradFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1">
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
               <a:alpha val="95000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -2157,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
